--- a/biology/Botanique/Zingiber/Zingiber.xlsx
+++ b/biology/Botanique/Zingiber/Zingiber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zingiber est un genre de plantes de la famille des Zingiberaceae qui comprend une centaine d'espèces.
 C'est le genre des gingembres véritables dont trois espèces : le gingembre officinal, le gingembre japonais et Zingiber zerumbet sont largement utilisés dans l'alimentation humaine.
@@ -512,7 +524,9 @@
           <t>Synonymes du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amomum L.(1753), nom rejeté
@@ -551,10 +565,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Zingiber contient 100 à 150 espèces dont :
-Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2011)[1] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2011) :
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2011) :
 </t>
         </is>
       </c>
